--- a/images/torihiki.xlsx
+++ b/images/torihiki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PJ\01.Nablarch\repo\nablarch-development-standards\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFECB91E-6C94-4882-AF5D-DE5A4C887D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF27D5B-E4F9-4B48-8662-1A34AC78C8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1035" windowWidth="7500" windowHeight="1320" xr2:uid="{2BBAC315-5396-4C3E-A98B-0EB7C1BD3904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2BBAC315-5396-4C3E-A98B-0EB7C1BD3904}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6938,6 +6938,134 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170544</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="コネクタ: カギ線 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77A9AA7-C72D-42F7-BF8E-F81798FF1D2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="1036" idx="2"/>
+          <a:endCxn id="124" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2707822" y="9280071"/>
+          <a:ext cx="598715" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>183172</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>183172</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="コネクタ: カギ線 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25CC1083-D08A-4230-B5F7-0371FACC54AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="1036" idx="2"/>
+          <a:endCxn id="136" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5110528" y="6795721"/>
+          <a:ext cx="586154" cy="4579327"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7238,7 +7366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929BEC3A-B607-4B78-AA63-AD78B77AACE7}">
-  <dimension ref="BE1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>

--- a/images/torihiki.xlsx
+++ b/images/torihiki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PJ\01.Nablarch\repo\nablarch-development-standards\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF27D5B-E4F9-4B48-8662-1A34AC78C8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53717B2E-053B-4279-9204-9C0BDF034C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2BBAC315-5396-4C3E-A98B-0EB7C1BD3904}"/>
   </bookViews>
@@ -4251,13 +4251,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4275,10 +4275,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7252607" y="5538107"/>
-          <a:ext cx="1945822" cy="2544536"/>
+          <a:off x="6191249" y="5538107"/>
+          <a:ext cx="2476501" cy="2544536"/>
           <a:chOff x="7600950" y="3857625"/>
-          <a:chExt cx="1990725" cy="2428875"/>
+          <a:chExt cx="2533651" cy="2428875"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4295,7 +4295,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="7600950" y="3857625"/>
-            <a:ext cx="1990725" cy="2428875"/>
+            <a:ext cx="2352678" cy="2428875"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4752,7 +4752,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="8382000" y="4714875"/>
-            <a:ext cx="1209675" cy="328360"/>
+            <a:ext cx="1752601" cy="328360"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>

--- a/images/torihiki.xlsx
+++ b/images/torihiki.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PJ\01.Nablarch\repo\nablarch-development-standards\images\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53717B2E-053B-4279-9204-9C0BDF034C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C957DBA-83CE-45A6-A6C9-1D4A40B5E89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2BBAC315-5396-4C3E-A98B-0EB7C1BD3904}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BBAC315-5396-4C3E-A98B-0EB7C1BD3904}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1690,8 +1685,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7606393" y="1496786"/>
-          <a:ext cx="1945821" cy="1945821"/>
+          <a:off x="7781925" y="1428750"/>
+          <a:ext cx="1990725" cy="1857375"/>
           <a:chOff x="7781925" y="2143125"/>
           <a:chExt cx="1990725" cy="1857375"/>
         </a:xfrm>
@@ -4275,8 +4270,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6191249" y="5538107"/>
-          <a:ext cx="2476501" cy="2544536"/>
+          <a:off x="6330042" y="5286375"/>
+          <a:ext cx="2537733" cy="2428875"/>
           <a:chOff x="7600950" y="3857625"/>
           <a:chExt cx="2533651" cy="2428875"/>
         </a:xfrm>
@@ -4891,8 +4886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5306786" y="15716250"/>
-          <a:ext cx="1945821" cy="1945821"/>
+          <a:off x="5429250" y="15001875"/>
+          <a:ext cx="1990725" cy="1857375"/>
           <a:chOff x="7781925" y="2143125"/>
           <a:chExt cx="1990725" cy="1857375"/>
         </a:xfrm>
@@ -7368,7 +7363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929BEC3A-B607-4B78-AA63-AD78B77AACE7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7376,11 +7371,10 @@
     <col min="22" max="57" width="2.7109375" style="1" customWidth="1"/>
     <col min="58" max="16384" width="2.7109375" style="1"/>
   </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>